--- a/DataDriverFramework2/src/utilities/excel_data.xlsx
+++ b/DataDriverFramework2/src/utilities/excel_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>Test Case</t>
   </si>
@@ -179,12 +179,6 @@
   </si>
   <si>
     <t>SKIP</t>
-  </si>
-  <si>
-    <t>sureet.aujla@gmail.com</t>
-  </si>
-  <si>
-    <t>JJ@ten30</t>
   </si>
   <si>
     <t>selenium</t>
@@ -730,7 +724,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -865,7 +859,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
@@ -875,9 +869,7 @@
       <c r="C11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>53</v>
-      </c>
+      <c r="D11" s="15"/>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" customFormat="1" x14ac:dyDescent="0.3">
@@ -888,9 +880,7 @@
       <c r="C12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>54</v>
-      </c>
+      <c r="D12" s="15"/>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" customFormat="1" x14ac:dyDescent="0.3">
@@ -954,7 +944,7 @@
         <v>23</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E17" s="6"/>
     </row>
@@ -1045,11 +1035,9 @@
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
     <hyperlink ref="D16" r:id="rId2"/>
-    <hyperlink ref="D11" r:id="rId3"/>
-    <hyperlink ref="D12" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
